--- a/data/pca/factorExposure/factorExposure_2017-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01791074349276216</v>
+        <v>0.01013063510702531</v>
       </c>
       <c r="C2">
-        <v>-0.01538236592782356</v>
+        <v>-0.04116756059677503</v>
       </c>
       <c r="D2">
-        <v>0.03155216975292189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02946614252285954</v>
+      </c>
+      <c r="E2">
+        <v>0.03717487320989466</v>
+      </c>
+      <c r="F2">
+        <v>-0.005138621934115506</v>
+      </c>
+      <c r="G2">
+        <v>0.1032438670185515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02294983556224452</v>
+        <v>0.04140746281062587</v>
       </c>
       <c r="C3">
-        <v>0.01114019843032242</v>
+        <v>-0.1019357218521124</v>
       </c>
       <c r="D3">
-        <v>0.1029101019305857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01756299241709455</v>
+      </c>
+      <c r="E3">
+        <v>0.100561727442228</v>
+      </c>
+      <c r="F3">
+        <v>-0.001947720580291162</v>
+      </c>
+      <c r="G3">
+        <v>0.1634057951250934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02550211593281509</v>
+        <v>0.05579090544551469</v>
       </c>
       <c r="C4">
-        <v>-0.00496482016737945</v>
+        <v>-0.06887565263108744</v>
       </c>
       <c r="D4">
-        <v>0.08226936079535359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02456462021756365</v>
+      </c>
+      <c r="E4">
+        <v>0.03241227952751254</v>
+      </c>
+      <c r="F4">
+        <v>-0.009651978021581891</v>
+      </c>
+      <c r="G4">
+        <v>0.1004742028191617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01182219012500775</v>
+        <v>0.03689214500332995</v>
       </c>
       <c r="C6">
-        <v>-0.01005016744125531</v>
+        <v>-0.05104738604106557</v>
       </c>
       <c r="D6">
-        <v>0.07837040803195744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01704441186253907</v>
+      </c>
+      <c r="E6">
+        <v>0.03727999815941462</v>
+      </c>
+      <c r="F6">
+        <v>-0.00674889106899882</v>
+      </c>
+      <c r="G6">
+        <v>0.08493836865564926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.005524567341048894</v>
+        <v>0.02085763905180174</v>
       </c>
       <c r="C7">
-        <v>-0.01126038356014864</v>
+        <v>-0.03954296981578274</v>
       </c>
       <c r="D7">
-        <v>0.03688962318389787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01400659547646602</v>
+      </c>
+      <c r="E7">
+        <v>0.006633782304639862</v>
+      </c>
+      <c r="F7">
+        <v>0.00454165197976255</v>
+      </c>
+      <c r="G7">
+        <v>0.1219503078432727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001279823619200669</v>
+        <v>0.003523397923887759</v>
       </c>
       <c r="C8">
-        <v>-0.0008696072141316344</v>
+        <v>-0.02498889875088194</v>
       </c>
       <c r="D8">
-        <v>-0.002839924030083346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003755685538385242</v>
+      </c>
+      <c r="E8">
+        <v>0.0286635559266011</v>
+      </c>
+      <c r="F8">
+        <v>-0.005811312340098128</v>
+      </c>
+      <c r="G8">
+        <v>0.0669664525333984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0158008615817017</v>
+        <v>0.03387547904624005</v>
       </c>
       <c r="C9">
-        <v>-0.003539556642688933</v>
+        <v>-0.0502444615193272</v>
       </c>
       <c r="D9">
-        <v>0.06081631837271641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01641371105655707</v>
+      </c>
+      <c r="E9">
+        <v>0.02292304580973017</v>
+      </c>
+      <c r="F9">
+        <v>-0.005289422738162131</v>
+      </c>
+      <c r="G9">
+        <v>0.101126103883606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1154650593051624</v>
+        <v>0.09952293800424764</v>
       </c>
       <c r="C10">
-        <v>0.1403862314991116</v>
+        <v>0.183300156252343</v>
       </c>
       <c r="D10">
-        <v>-0.1015420957365421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01570231611511656</v>
+      </c>
+      <c r="E10">
+        <v>0.01966238699981829</v>
+      </c>
+      <c r="F10">
+        <v>0.02219455804859743</v>
+      </c>
+      <c r="G10">
+        <v>0.05653864741188033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0008953880462943253</v>
+        <v>0.03422474435894791</v>
       </c>
       <c r="C11">
-        <v>-0.0004761519013990408</v>
+        <v>-0.05307075317127468</v>
       </c>
       <c r="D11">
-        <v>0.052419621562443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002523798092948276</v>
+      </c>
+      <c r="E11">
+        <v>0.01784742138260962</v>
+      </c>
+      <c r="F11">
+        <v>-0.01969990916767123</v>
+      </c>
+      <c r="G11">
+        <v>0.09154030866226481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004736998101629677</v>
+        <v>0.03595924606437002</v>
       </c>
       <c r="C12">
-        <v>-0.003345673660633892</v>
+        <v>-0.04796023560072334</v>
       </c>
       <c r="D12">
-        <v>0.04605215449596697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006576239053115839</v>
+      </c>
+      <c r="E12">
+        <v>0.009745840373598592</v>
+      </c>
+      <c r="F12">
+        <v>-0.0008696072894681748</v>
+      </c>
+      <c r="G12">
+        <v>0.08350770369547059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02078973239694064</v>
+        <v>0.01538242557158181</v>
       </c>
       <c r="C13">
-        <v>-0.00837022807172381</v>
+        <v>-0.04208807715017155</v>
       </c>
       <c r="D13">
-        <v>0.03435234641647812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02648648535566488</v>
+      </c>
+      <c r="E13">
+        <v>0.03738475477971856</v>
+      </c>
+      <c r="F13">
+        <v>-0.004162841645459122</v>
+      </c>
+      <c r="G13">
+        <v>0.1401027686254613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005546048529646555</v>
+        <v>0.008346004666234991</v>
       </c>
       <c r="C14">
-        <v>-0.004121854365365084</v>
+        <v>-0.02855280194542616</v>
       </c>
       <c r="D14">
-        <v>0.019241729352715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01012090071939694</v>
+      </c>
+      <c r="E14">
+        <v>0.007352053748499352</v>
+      </c>
+      <c r="F14">
+        <v>0.007584219471838821</v>
+      </c>
+      <c r="G14">
+        <v>0.1055224368835669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.003805817515105904</v>
+        <v>0.03286572762972888</v>
       </c>
       <c r="C16">
-        <v>0.003209999744725022</v>
+        <v>-0.04623582062712717</v>
       </c>
       <c r="D16">
-        <v>0.04074767306344051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001990257104896619</v>
+      </c>
+      <c r="E16">
+        <v>0.01555648699334483</v>
+      </c>
+      <c r="F16">
+        <v>-0.001518930051074766</v>
+      </c>
+      <c r="G16">
+        <v>0.09329540402703501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01235750300825475</v>
+        <v>0.02332883336137707</v>
       </c>
       <c r="C19">
-        <v>-0.00568184180915854</v>
+        <v>-0.05174022220561446</v>
       </c>
       <c r="D19">
-        <v>0.03965299057189425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0191258550267494</v>
+      </c>
+      <c r="E19">
+        <v>0.07920670287738926</v>
+      </c>
+      <c r="F19">
+        <v>-0.01916939432251091</v>
+      </c>
+      <c r="G19">
+        <v>0.138146801875997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.006728854995799317</v>
+        <v>0.01514731497544171</v>
       </c>
       <c r="C20">
-        <v>-0.008403753509837296</v>
+        <v>-0.04192754957127146</v>
       </c>
       <c r="D20">
-        <v>0.03448594216468834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01427131137146352</v>
+      </c>
+      <c r="E20">
+        <v>0.0385231292721802</v>
+      </c>
+      <c r="F20">
+        <v>0.01282485832855366</v>
+      </c>
+      <c r="G20">
+        <v>0.1109840242393959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01611353564973524</v>
+        <v>0.01241863270888218</v>
       </c>
       <c r="C21">
-        <v>-0.00118385722531846</v>
+        <v>-0.03820606264652107</v>
       </c>
       <c r="D21">
-        <v>0.02297895135261532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01918491039624307</v>
+      </c>
+      <c r="E21">
+        <v>0.04997028378217012</v>
+      </c>
+      <c r="F21">
+        <v>0.0009248121513255478</v>
+      </c>
+      <c r="G21">
+        <v>0.137710697613217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001404981913619027</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003319535935634663</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0006096878630616238</v>
+      </c>
+      <c r="E22">
+        <v>0.004111841531147225</v>
+      </c>
+      <c r="F22">
+        <v>-0.001773156922860867</v>
+      </c>
+      <c r="G22">
+        <v>0.00581089200232473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001410554210777566</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0003436142795736788</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0006085294260843804</v>
+      </c>
+      <c r="E23">
+        <v>0.004099073230127691</v>
+      </c>
+      <c r="F23">
+        <v>-0.001779081902885256</v>
+      </c>
+      <c r="G23">
+        <v>0.005703618307553518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0001961085176604177</v>
+        <v>0.02803405949989617</v>
       </c>
       <c r="C24">
-        <v>-0.007836880863721684</v>
+        <v>-0.05072374704775821</v>
       </c>
       <c r="D24">
-        <v>0.04509030109773014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007295957693413974</v>
+      </c>
+      <c r="E24">
+        <v>0.01271162919075077</v>
+      </c>
+      <c r="F24">
+        <v>-0.01153509118740961</v>
+      </c>
+      <c r="G24">
+        <v>0.09187843115194898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01573069566131958</v>
+        <v>0.04229729434481947</v>
       </c>
       <c r="C25">
-        <v>0.001858820096825206</v>
+        <v>-0.05813723496161048</v>
       </c>
       <c r="D25">
-        <v>0.05783013449391652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01131694508935821</v>
+      </c>
+      <c r="E25">
+        <v>0.004481389541614731</v>
+      </c>
+      <c r="F25">
+        <v>-0.005136457693006283</v>
+      </c>
+      <c r="G25">
+        <v>0.09992056380625644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01820697665799998</v>
+        <v>0.01388372319763908</v>
       </c>
       <c r="C26">
-        <v>-0.01247192025904177</v>
+        <v>-0.01300814033555248</v>
       </c>
       <c r="D26">
-        <v>0.0003203802719421923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02420656353337308</v>
+      </c>
+      <c r="E26">
+        <v>0.00892547063703735</v>
+      </c>
+      <c r="F26">
+        <v>0.00833332842969807</v>
+      </c>
+      <c r="G26">
+        <v>0.08235818658307585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1633360735061099</v>
+        <v>0.1266637017874555</v>
       </c>
       <c r="C28">
-        <v>0.1762235682575743</v>
+        <v>0.2403405444615566</v>
       </c>
       <c r="D28">
-        <v>-0.1299641251905145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006629087589199673</v>
+      </c>
+      <c r="E28">
+        <v>0.009233508302025168</v>
+      </c>
+      <c r="F28">
+        <v>0.0151998313512331</v>
+      </c>
+      <c r="G28">
+        <v>0.04884159518735908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01093320303356522</v>
+        <v>0.008995112172776746</v>
       </c>
       <c r="C29">
-        <v>0.002610682261967429</v>
+        <v>-0.02294057776168747</v>
       </c>
       <c r="D29">
-        <v>0.01860844313101559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009188075631638848</v>
+      </c>
+      <c r="E29">
+        <v>0.004557868129400102</v>
+      </c>
+      <c r="F29">
+        <v>0.01448488869990996</v>
+      </c>
+      <c r="G29">
+        <v>0.096599888592603</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01500622510639533</v>
+        <v>0.04143341356696899</v>
       </c>
       <c r="C30">
-        <v>-0.01972113431230653</v>
+        <v>-0.06940674327717479</v>
       </c>
       <c r="D30">
-        <v>0.09897447576872193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02889818904955106</v>
+      </c>
+      <c r="E30">
+        <v>0.06048832744303799</v>
+      </c>
+      <c r="F30">
+        <v>-0.04358580611005965</v>
+      </c>
+      <c r="G30">
+        <v>0.1335520232527025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02273441297703607</v>
+        <v>0.05299514779864905</v>
       </c>
       <c r="C31">
-        <v>0.01833817108880762</v>
+        <v>-0.03835967168413069</v>
       </c>
       <c r="D31">
-        <v>0.03179178422504593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003842242774322621</v>
+      </c>
+      <c r="E31">
+        <v>-0.0001562666760376683</v>
+      </c>
+      <c r="F31">
+        <v>0.03988833977470566</v>
+      </c>
+      <c r="G31">
+        <v>0.09902678333892165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002083953300039309</v>
+        <v>0.002832047331915425</v>
       </c>
       <c r="C32">
-        <v>0.01504051070865038</v>
+        <v>-0.0233105007121854</v>
       </c>
       <c r="D32">
-        <v>0.005331619559504762</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.00299663658857017</v>
+      </c>
+      <c r="E32">
+        <v>0.03406721530173489</v>
+      </c>
+      <c r="F32">
+        <v>-0.0421864068591974</v>
+      </c>
+      <c r="G32">
+        <v>0.08696489946301525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01009747059741366</v>
+        <v>0.02797912247776863</v>
       </c>
       <c r="C33">
-        <v>-0.005587621831861944</v>
+        <v>-0.05006158017529505</v>
       </c>
       <c r="D33">
-        <v>0.0422255159492005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01576067234579358</v>
+      </c>
+      <c r="E33">
+        <v>0.04413980140477503</v>
+      </c>
+      <c r="F33">
+        <v>-0.01438580711108721</v>
+      </c>
+      <c r="G33">
+        <v>0.1631860571444376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004843752616369088</v>
+        <v>0.03974973814048234</v>
       </c>
       <c r="C34">
-        <v>0.01400141328974858</v>
+        <v>-0.05933526708590892</v>
       </c>
       <c r="D34">
-        <v>0.05586480010808277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004457896335846503</v>
+      </c>
+      <c r="E34">
+        <v>0.007832939028775857</v>
+      </c>
+      <c r="F34">
+        <v>-0.02077576292501393</v>
+      </c>
+      <c r="G34">
+        <v>0.095206817954508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01624856309824895</v>
+        <v>0.01632105427326223</v>
       </c>
       <c r="C36">
-        <v>0.002604057752426843</v>
+        <v>-0.009776254916849206</v>
       </c>
       <c r="D36">
-        <v>0.00452043504144262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0125524247221143</v>
+      </c>
+      <c r="E36">
+        <v>0.008510985295635065</v>
+      </c>
+      <c r="F36">
+        <v>0.007708571370823787</v>
+      </c>
+      <c r="G36">
+        <v>0.0919714443523464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01020624370480862</v>
+        <v>0.03123376536440224</v>
       </c>
       <c r="C38">
-        <v>0.02273720464828711</v>
+        <v>-0.03053087321130372</v>
       </c>
       <c r="D38">
-        <v>0.03990795961213262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00744992373368322</v>
+      </c>
+      <c r="E38">
+        <v>0.007205971907020372</v>
+      </c>
+      <c r="F38">
+        <v>0.01831803738349619</v>
+      </c>
+      <c r="G38">
+        <v>0.08654883210193058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.007736261940855136</v>
+        <v>0.0362399329411206</v>
       </c>
       <c r="C39">
-        <v>-0.02257255224186504</v>
+        <v>-0.07987241824364288</v>
       </c>
       <c r="D39">
-        <v>0.09906904628772138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0118098523679902</v>
+      </c>
+      <c r="E39">
+        <v>0.02965865923992802</v>
+      </c>
+      <c r="F39">
+        <v>-0.02217542626491156</v>
+      </c>
+      <c r="G39">
+        <v>0.09106391713623414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01662875089965031</v>
+        <v>0.01354205356770301</v>
       </c>
       <c r="C40">
-        <v>0.003264059213469566</v>
+        <v>-0.03961409037437928</v>
       </c>
       <c r="D40">
-        <v>0.03504338783491026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01468295212642681</v>
+      </c>
+      <c r="E40">
+        <v>0.03154867970545071</v>
+      </c>
+      <c r="F40">
+        <v>0.007755618619320209</v>
+      </c>
+      <c r="G40">
+        <v>0.1228962678480741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.0147586732902099</v>
+        <v>0.02059184577311058</v>
       </c>
       <c r="C41">
-        <v>0.01223050527000954</v>
+        <v>-0.0027539457820773</v>
       </c>
       <c r="D41">
-        <v>-0.009968182466449845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004481621328243189</v>
+      </c>
+      <c r="E41">
+        <v>0.007703349602957682</v>
+      </c>
+      <c r="F41">
+        <v>0.01527311671186468</v>
+      </c>
+      <c r="G41">
+        <v>0.08589904449056286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.05961521324598819</v>
+        <v>0.009625083496954078</v>
       </c>
       <c r="C42">
-        <v>-0.07399915266603109</v>
+        <v>-0.03324168544377316</v>
       </c>
       <c r="D42">
-        <v>0.1478694916058896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08906258609597137</v>
+      </c>
+      <c r="E42">
+        <v>0.01925190828304878</v>
+      </c>
+      <c r="F42">
+        <v>0.04425582128866305</v>
+      </c>
+      <c r="G42">
+        <v>-0.02344629186633363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01554990848252923</v>
+        <v>0.03510712619774856</v>
       </c>
       <c r="C43">
-        <v>0.01194623784560412</v>
+        <v>-0.01853994516009924</v>
       </c>
       <c r="D43">
-        <v>-0.01022327437861233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005887022407516339</v>
+      </c>
+      <c r="E43">
+        <v>0.02079242374690434</v>
+      </c>
+      <c r="F43">
+        <v>0.007602449088363562</v>
+      </c>
+      <c r="G43">
+        <v>0.1197367284029344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001724750229823435</v>
+        <v>0.01325079593481439</v>
       </c>
       <c r="C44">
-        <v>-0.002356319857323637</v>
+        <v>-0.05965685277557464</v>
       </c>
       <c r="D44">
-        <v>0.05199542355738793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007053264384867034</v>
+      </c>
+      <c r="E44">
+        <v>0.02534317542733906</v>
+      </c>
+      <c r="F44">
+        <v>0.004173606489097581</v>
+      </c>
+      <c r="G44">
+        <v>0.1106864694949669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009479060391723648</v>
+        <v>0.008289940787704524</v>
       </c>
       <c r="C46">
-        <v>-0.003647549556030185</v>
+        <v>-0.01392717437715185</v>
       </c>
       <c r="D46">
-        <v>-0.006156467857288917</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01263269698685584</v>
+      </c>
+      <c r="E46">
+        <v>0.001916592706847691</v>
+      </c>
+      <c r="F46">
+        <v>0.01552164822655984</v>
+      </c>
+      <c r="G46">
+        <v>0.1064488644048265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01828980292968296</v>
+        <v>0.07742437662693628</v>
       </c>
       <c r="C47">
-        <v>0.02303923888489931</v>
+        <v>-0.06904139829782145</v>
       </c>
       <c r="D47">
-        <v>0.07360620583261349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004783307423214965</v>
+      </c>
+      <c r="E47">
+        <v>-0.005389458998770826</v>
+      </c>
+      <c r="F47">
+        <v>0.05314962320301008</v>
+      </c>
+      <c r="G47">
+        <v>0.08545296810952253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008690759957855185</v>
+        <v>0.01878480176625108</v>
       </c>
       <c r="C48">
-        <v>0.008215420088049373</v>
+        <v>-0.01317729960709429</v>
       </c>
       <c r="D48">
-        <v>0.01674434576131714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002277732271110942</v>
+      </c>
+      <c r="E48">
+        <v>0.00485127228673426</v>
+      </c>
+      <c r="F48">
+        <v>0.01938669347849367</v>
+      </c>
+      <c r="G48">
+        <v>0.09707716700825214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.02669003194983357</v>
+        <v>0.07545833287658221</v>
       </c>
       <c r="C50">
-        <v>0.03014936002640157</v>
+        <v>-0.07221631529469574</v>
       </c>
       <c r="D50">
-        <v>0.06940806427970891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002240116583107391</v>
+      </c>
+      <c r="E50">
+        <v>-0.003054100420874895</v>
+      </c>
+      <c r="F50">
+        <v>0.05547645399840293</v>
+      </c>
+      <c r="G50">
+        <v>0.09311302320634125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007512604903924591</v>
+        <v>0.01429583903950984</v>
       </c>
       <c r="C51">
-        <v>-9.876684780919565e-05</v>
+        <v>-0.03648948006026571</v>
       </c>
       <c r="D51">
-        <v>0.01791226825419713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01068665662219759</v>
+      </c>
+      <c r="E51">
+        <v>0.02591810352622756</v>
+      </c>
+      <c r="F51">
+        <v>-0.02434337981609402</v>
+      </c>
+      <c r="G51">
+        <v>0.1229950166426111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.02923430909389927</v>
+        <v>0.08154890444728677</v>
       </c>
       <c r="C53">
-        <v>0.03237915161021478</v>
+        <v>-0.08546027710370264</v>
       </c>
       <c r="D53">
-        <v>0.1279490967084891</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003495531043572367</v>
+      </c>
+      <c r="E53">
+        <v>-0.02496679058964308</v>
+      </c>
+      <c r="F53">
+        <v>0.0646664540894854</v>
+      </c>
+      <c r="G53">
+        <v>0.09235727819266457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01266850230313296</v>
+        <v>0.03160239001073126</v>
       </c>
       <c r="C54">
-        <v>0.01905507266132221</v>
+        <v>-0.01920215766947223</v>
       </c>
       <c r="D54">
-        <v>-0.002706126924424887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001262179170063158</v>
+      </c>
+      <c r="E54">
+        <v>0.01815246625385897</v>
+      </c>
+      <c r="F54">
+        <v>0.005684606657916608</v>
+      </c>
+      <c r="G54">
+        <v>0.1067998256109055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01614220618920976</v>
+        <v>0.07171388190930797</v>
       </c>
       <c r="C55">
-        <v>0.01894189747607333</v>
+        <v>-0.06829733457521625</v>
       </c>
       <c r="D55">
-        <v>0.1005326620004255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005112471538802153</v>
+      </c>
+      <c r="E55">
+        <v>-0.0229219786371776</v>
+      </c>
+      <c r="F55">
+        <v>0.06454132711094014</v>
+      </c>
+      <c r="G55">
+        <v>0.0698036734447124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.03093992479204099</v>
+        <v>0.1358031921858743</v>
       </c>
       <c r="C56">
-        <v>0.03972117739502358</v>
+        <v>-0.1082531542150559</v>
       </c>
       <c r="D56">
-        <v>0.1557268101174242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01244046998339645</v>
+      </c>
+      <c r="E56">
+        <v>-0.0326590709246292</v>
+      </c>
+      <c r="F56">
+        <v>0.08145091993372799</v>
+      </c>
+      <c r="G56">
+        <v>0.04219543815488124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02220115584939196</v>
+        <v>0.00574830467904874</v>
       </c>
       <c r="C57">
-        <v>-0.008830073342482377</v>
+        <v>-0.006517515264538255</v>
       </c>
       <c r="D57">
-        <v>0.03216916576643853</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02284215006834894</v>
+      </c>
+      <c r="E57">
+        <v>0.0250427272347164</v>
+      </c>
+      <c r="F57">
+        <v>-0.008624440988689691</v>
+      </c>
+      <c r="G57">
+        <v>0.02396480813201828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01944203235352092</v>
+        <v>0.05382373474465614</v>
       </c>
       <c r="C58">
-        <v>0.01914409291658642</v>
+        <v>-0.04514133530173242</v>
       </c>
       <c r="D58">
-        <v>0.1275875938133794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01928225488066759</v>
+      </c>
+      <c r="E58">
+        <v>0.9147610519139252</v>
+      </c>
+      <c r="F58">
+        <v>0.2636392748122196</v>
+      </c>
+      <c r="G58">
+        <v>-0.2285222949384481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1794669360456508</v>
+        <v>0.1607739902542132</v>
       </c>
       <c r="C59">
-        <v>0.2008024374148557</v>
+        <v>0.2048498951926083</v>
       </c>
       <c r="D59">
-        <v>-0.1067895472631939</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01170893553429316</v>
+      </c>
+      <c r="E59">
+        <v>0.01814782181991683</v>
+      </c>
+      <c r="F59">
+        <v>0.002903707876024499</v>
+      </c>
+      <c r="G59">
+        <v>0.04097435759247927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1520486876740551</v>
+        <v>0.2882866108340542</v>
       </c>
       <c r="C60">
-        <v>0.1409840240847847</v>
+        <v>-0.1088788292013426</v>
       </c>
       <c r="D60">
-        <v>0.1481799926327495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01190982141996119</v>
+      </c>
+      <c r="E60">
+        <v>-0.002109328026034374</v>
+      </c>
+      <c r="F60">
+        <v>-0.3391278485004416</v>
+      </c>
+      <c r="G60">
+        <v>-0.1624552558179668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001946891799169009</v>
+        <v>0.03891439319229505</v>
       </c>
       <c r="C61">
-        <v>-0.002989127289214886</v>
+        <v>-0.06587016238867267</v>
       </c>
       <c r="D61">
-        <v>0.07427014066554109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005543058777424358</v>
+      </c>
+      <c r="E61">
+        <v>0.02385156937286969</v>
+      </c>
+      <c r="F61">
+        <v>-0.01340923345212132</v>
+      </c>
+      <c r="G61">
+        <v>0.09619975742108583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.005777547740594874</v>
+        <v>0.0160608444266803</v>
       </c>
       <c r="C63">
-        <v>-0.004824521374920393</v>
+        <v>-0.03074653651890896</v>
       </c>
       <c r="D63">
-        <v>0.02628035588926153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008404978267750338</v>
+      </c>
+      <c r="E63">
+        <v>0.003369672614648538</v>
+      </c>
+      <c r="F63">
+        <v>0.01741724797359943</v>
+      </c>
+      <c r="G63">
+        <v>0.09198293940035115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02377839344562438</v>
+        <v>0.0488390933380374</v>
       </c>
       <c r="C64">
-        <v>0.01836448281091411</v>
+        <v>-0.04690045430710194</v>
       </c>
       <c r="D64">
-        <v>0.06100503789637539</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006627382060281043</v>
+      </c>
+      <c r="E64">
+        <v>0.008962779529965732</v>
+      </c>
+      <c r="F64">
+        <v>-0.008835152238860873</v>
+      </c>
+      <c r="G64">
+        <v>0.1034941234583955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02893533698099141</v>
+        <v>0.07554317134605962</v>
       </c>
       <c r="C65">
-        <v>0.005856148300405836</v>
+        <v>-0.05823185242799213</v>
       </c>
       <c r="D65">
-        <v>0.1160839950668855</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01659194320291397</v>
+      </c>
+      <c r="E65">
+        <v>0.03887051234795585</v>
+      </c>
+      <c r="F65">
+        <v>-0.02792941548120568</v>
+      </c>
+      <c r="G65">
+        <v>0.04266709545579279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.006322506274827259</v>
+        <v>0.05089823113435227</v>
       </c>
       <c r="C66">
-        <v>-0.02053853823172421</v>
+        <v>-0.1070158404118419</v>
       </c>
       <c r="D66">
-        <v>0.1346930331327587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01167266778011864</v>
+      </c>
+      <c r="E66">
+        <v>0.04058232246008944</v>
+      </c>
+      <c r="F66">
+        <v>-0.03384924268761522</v>
+      </c>
+      <c r="G66">
+        <v>0.1045030130635433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.02639376138080276</v>
+        <v>0.05392606319690577</v>
       </c>
       <c r="C67">
-        <v>0.0356825630520898</v>
+        <v>-0.03394639294153701</v>
       </c>
       <c r="D67">
-        <v>0.05887718371203478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005924308358772158</v>
+      </c>
+      <c r="E67">
+        <v>-0.001707756866707889</v>
+      </c>
+      <c r="F67">
+        <v>0.0175031700497255</v>
+      </c>
+      <c r="G67">
+        <v>0.07479254164121181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.187834293842231</v>
+        <v>0.1562418980829242</v>
       </c>
       <c r="C68">
-        <v>0.1821305220530976</v>
+        <v>0.2687832074834594</v>
       </c>
       <c r="D68">
-        <v>-0.1593286767446277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005416673967413297</v>
+      </c>
+      <c r="E68">
+        <v>0.01208132434423009</v>
+      </c>
+      <c r="F68">
+        <v>0.03728835481295584</v>
+      </c>
+      <c r="G68">
+        <v>0.02974867293803684</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.02223802098716712</v>
+        <v>0.08269430346791108</v>
       </c>
       <c r="C69">
-        <v>0.03319103009643946</v>
+        <v>-0.07044027426581595</v>
       </c>
       <c r="D69">
-        <v>0.07787195479568286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008931899308498034</v>
+      </c>
+      <c r="E69">
+        <v>-0.02082502127136432</v>
+      </c>
+      <c r="F69">
+        <v>0.0383152500298278</v>
+      </c>
+      <c r="G69">
+        <v>0.1019538565311042</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1521771153981429</v>
+        <v>0.1418026161248906</v>
       </c>
       <c r="C71">
-        <v>0.1570573654495437</v>
+        <v>0.2302133880498839</v>
       </c>
       <c r="D71">
-        <v>-0.111682870952143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003132314525065755</v>
+      </c>
+      <c r="E71">
+        <v>0.03250719325898693</v>
+      </c>
+      <c r="F71">
+        <v>0.02543753953561048</v>
+      </c>
+      <c r="G71">
+        <v>0.07158852735620343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.008925015767623386</v>
+        <v>0.08441666231685829</v>
       </c>
       <c r="C72">
-        <v>0.018152296190931</v>
+        <v>-0.06914812689970501</v>
       </c>
       <c r="D72">
-        <v>0.1051601269068417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008122775653424889</v>
+      </c>
+      <c r="E72">
+        <v>-0.008499108341052964</v>
+      </c>
+      <c r="F72">
+        <v>-0.03637860309842141</v>
+      </c>
+      <c r="G72">
+        <v>0.08702056192063963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1859660351993171</v>
+        <v>0.3767108512327653</v>
       </c>
       <c r="C73">
-        <v>0.1643356925790047</v>
+        <v>-0.1179072199173935</v>
       </c>
       <c r="D73">
-        <v>0.2751672027053843</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0208150126235277</v>
+      </c>
+      <c r="E73">
+        <v>0.0732534739901634</v>
+      </c>
+      <c r="F73">
+        <v>-0.5825132974025813</v>
+      </c>
+      <c r="G73">
+        <v>-0.2902955705192948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.03085397459959672</v>
+        <v>0.1046360337130136</v>
       </c>
       <c r="C74">
-        <v>0.04190623651273138</v>
+        <v>-0.110156268443189</v>
       </c>
       <c r="D74">
-        <v>0.1713021970561563</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0095043352697077</v>
+      </c>
+      <c r="E74">
+        <v>-0.008095251909233827</v>
+      </c>
+      <c r="F74">
+        <v>0.06906673283944458</v>
+      </c>
+      <c r="G74">
+        <v>0.08161115727250083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.08096406009273513</v>
+        <v>0.2467222262017917</v>
       </c>
       <c r="C75">
-        <v>0.1034750161872687</v>
+        <v>-0.1537886120189478</v>
       </c>
       <c r="D75">
-        <v>0.3055699393503684</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03082952180769943</v>
+      </c>
+      <c r="E75">
+        <v>-0.0673052586474743</v>
+      </c>
+      <c r="F75">
+        <v>0.1671669751459602</v>
+      </c>
+      <c r="G75">
+        <v>-0.02099207126774713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.03759044298702332</v>
+        <v>0.1182897893110536</v>
       </c>
       <c r="C76">
-        <v>0.05759060543418777</v>
+        <v>-0.1096724869026397</v>
       </c>
       <c r="D76">
-        <v>0.2084376043366936</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01799223971183781</v>
+      </c>
+      <c r="E76">
+        <v>-0.02576335128695825</v>
+      </c>
+      <c r="F76">
+        <v>0.1045226854622042</v>
+      </c>
+      <c r="G76">
+        <v>0.06010493439688834</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0176511666806844</v>
+        <v>0.07112488721675184</v>
       </c>
       <c r="C77">
-        <v>0.004164068580875897</v>
+        <v>-0.06142176652342976</v>
       </c>
       <c r="D77">
-        <v>0.0832102730831004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01027935765931323</v>
+      </c>
+      <c r="E77">
+        <v>0.04869149646583763</v>
+      </c>
+      <c r="F77">
+        <v>-0.0138991025853739</v>
+      </c>
+      <c r="G77">
+        <v>0.06250370090517693</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.008070408954279174</v>
+        <v>0.04259630335211554</v>
       </c>
       <c r="C78">
-        <v>0.003347918421769222</v>
+        <v>-0.04976501828665691</v>
       </c>
       <c r="D78">
-        <v>0.06534625394711815</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005907437805077178</v>
+      </c>
+      <c r="E78">
+        <v>0.02845140284605698</v>
+      </c>
+      <c r="F78">
+        <v>-0.03527115605778951</v>
+      </c>
+      <c r="G78">
+        <v>0.1027193059430901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1.438510505460081e-05</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003353984554128114</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1.462705334115177e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.0008798870704738599</v>
+      </c>
+      <c r="F79">
+        <v>-0.0005681171215042331</v>
+      </c>
+      <c r="G79">
+        <v>-0.000942105469686526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03049089449223855</v>
+        <v>0.04305788695363231</v>
       </c>
       <c r="C80">
-        <v>0.01577215068854245</v>
+        <v>-0.05116508478507414</v>
       </c>
       <c r="D80">
-        <v>0.08127586733878417</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01324670253856148</v>
+      </c>
+      <c r="E80">
+        <v>0.02620203817506106</v>
+      </c>
+      <c r="F80">
+        <v>-0.01085380785372793</v>
+      </c>
+      <c r="G80">
+        <v>0.05456770273432313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.04807268267588328</v>
+        <v>0.136727671198981</v>
       </c>
       <c r="C81">
-        <v>0.05983162348104688</v>
+        <v>-0.09619299243908216</v>
       </c>
       <c r="D81">
-        <v>0.1678917001475993</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0147321628435534</v>
+      </c>
+      <c r="E81">
+        <v>-0.03257980887999732</v>
+      </c>
+      <c r="F81">
+        <v>0.1255321979294374</v>
+      </c>
+      <c r="G81">
+        <v>0.02208807960837668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1334007067102467</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08102858321038062</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009436001231212583</v>
+      </c>
+      <c r="E82">
+        <v>-0.0993751595534719</v>
+      </c>
+      <c r="F82">
+        <v>0.05166230482996554</v>
+      </c>
+      <c r="G82">
+        <v>0.06384582686320651</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01509985832639902</v>
+        <v>0.03617604922260863</v>
       </c>
       <c r="C83">
-        <v>0.01067392547941094</v>
+        <v>-0.02865336045035302</v>
       </c>
       <c r="D83">
-        <v>0.02655151686189527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006014638388311294</v>
+      </c>
+      <c r="E83">
+        <v>0.03007427324344132</v>
+      </c>
+      <c r="F83">
+        <v>-0.02954420410295742</v>
+      </c>
+      <c r="G83">
+        <v>0.0633720779989394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.07341856190078788</v>
+        <v>0.2110930951320782</v>
       </c>
       <c r="C85">
-        <v>0.07712916714489391</v>
+        <v>-0.1489336547488051</v>
       </c>
       <c r="D85">
-        <v>0.2768476278852956</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01691556084488287</v>
+      </c>
+      <c r="E85">
+        <v>-0.1023553127733931</v>
+      </c>
+      <c r="F85">
+        <v>0.1209829639904247</v>
+      </c>
+      <c r="G85">
+        <v>-0.06240990472937226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01550094875203669</v>
+        <v>0.01426786499314243</v>
       </c>
       <c r="C86">
-        <v>0.009501179948259466</v>
+        <v>-0.02493682473764595</v>
       </c>
       <c r="D86">
-        <v>0.04240558034693483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01138092242477757</v>
+      </c>
+      <c r="E86">
+        <v>0.05127165820597439</v>
+      </c>
+      <c r="F86">
+        <v>-0.01835393596352334</v>
+      </c>
+      <c r="G86">
+        <v>0.1916241288082281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.001662161252845824</v>
+        <v>0.02155195958539748</v>
       </c>
       <c r="C87">
-        <v>-0.01074858817377773</v>
+        <v>-0.02156225283167326</v>
       </c>
       <c r="D87">
-        <v>0.03805034572475028</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01182692024432907</v>
+      </c>
+      <c r="E87">
+        <v>0.09358153109530862</v>
+      </c>
+      <c r="F87">
+        <v>-0.009074238298889746</v>
+      </c>
+      <c r="G87">
+        <v>0.1224111183733792</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04331910771283039</v>
+        <v>0.0937529434577358</v>
       </c>
       <c r="C88">
-        <v>0.01291722399712126</v>
+        <v>-0.06918642589091496</v>
       </c>
       <c r="D88">
-        <v>0.04925942076604779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02233346120238216</v>
+      </c>
+      <c r="E88">
+        <v>-0.003824218348738658</v>
+      </c>
+      <c r="F88">
+        <v>0.02139805893016169</v>
+      </c>
+      <c r="G88">
+        <v>0.1028886613896547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2801904394954503</v>
+        <v>0.2337895877400871</v>
       </c>
       <c r="C89">
-        <v>0.2848423096412948</v>
+        <v>0.3676677132891247</v>
       </c>
       <c r="D89">
-        <v>-0.1948792831710357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004747228645943203</v>
+      </c>
+      <c r="E89">
+        <v>-0.01916957535771729</v>
+      </c>
+      <c r="F89">
+        <v>0.02668109394036295</v>
+      </c>
+      <c r="G89">
+        <v>0.07032999784856883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2282153928784768</v>
+        <v>0.2086628172814592</v>
       </c>
       <c r="C90">
-        <v>0.2366632302833971</v>
+        <v>0.3159003792248529</v>
       </c>
       <c r="D90">
-        <v>-0.1765262961652517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004777014482631839</v>
+      </c>
+      <c r="E90">
+        <v>0.0008674770335469911</v>
+      </c>
+      <c r="F90">
+        <v>0.04811099678907758</v>
+      </c>
+      <c r="G90">
+        <v>0.04327884442775292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.06980392940661095</v>
+        <v>0.1843480869688311</v>
       </c>
       <c r="C91">
-        <v>0.09211857254981695</v>
+        <v>-0.142450759767772</v>
       </c>
       <c r="D91">
-        <v>0.2297263432048061</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02183386160140316</v>
+      </c>
+      <c r="E91">
+        <v>-0.06295721609679598</v>
+      </c>
+      <c r="F91">
+        <v>0.1414931558489093</v>
+      </c>
+      <c r="G91">
+        <v>0.03400208017156025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1869536607357365</v>
+        <v>0.2000958089355436</v>
       </c>
       <c r="C92">
-        <v>0.2373507610180695</v>
+        <v>0.2565311910351159</v>
       </c>
       <c r="D92">
-        <v>-0.08011315049760927</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0381831489602277</v>
+      </c>
+      <c r="E92">
+        <v>0.04328378806802776</v>
+      </c>
+      <c r="F92">
+        <v>0.06038912692849905</v>
+      </c>
+      <c r="G92">
+        <v>0.1139504569549019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2398260474072554</v>
+        <v>0.2321002675457506</v>
       </c>
       <c r="C93">
-        <v>0.2561855888866055</v>
+        <v>0.3126960434514757</v>
       </c>
       <c r="D93">
-        <v>-0.1459518081005907</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01143962303874137</v>
+      </c>
+      <c r="E93">
+        <v>0.004664654356498123</v>
+      </c>
+      <c r="F93">
+        <v>0.04316133678310316</v>
+      </c>
+      <c r="G93">
+        <v>0.05953084297510183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1177107528268258</v>
+        <v>0.318252618180971</v>
       </c>
       <c r="C94">
-        <v>0.1139365388757159</v>
+        <v>-0.1806914027216256</v>
       </c>
       <c r="D94">
-        <v>0.3028525020725454</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01847258238420077</v>
+      </c>
+      <c r="E94">
+        <v>-0.2113970388527589</v>
+      </c>
+      <c r="F94">
+        <v>0.4796555864646967</v>
+      </c>
+      <c r="G94">
+        <v>-0.4149508676992243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.0002325347738693305</v>
+        <v>0.100214391853932</v>
       </c>
       <c r="C95">
-        <v>0.01106432312603605</v>
+        <v>-0.08814980628333131</v>
       </c>
       <c r="D95">
-        <v>0.1139874465406896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009910462213134831</v>
+      </c>
+      <c r="E95">
+        <v>0.08573703634553513</v>
+      </c>
+      <c r="F95">
+        <v>-0.1889383516397928</v>
+      </c>
+      <c r="G95">
+        <v>0.01009026823453667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1028697891070476</v>
+        <v>0.195363120514358</v>
       </c>
       <c r="C98">
-        <v>0.1287572719883261</v>
+        <v>-0.04540734756914415</v>
       </c>
       <c r="D98">
-        <v>0.1254931236818597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01353430782367271</v>
+      </c>
+      <c r="E98">
+        <v>0.06819001800853645</v>
+      </c>
+      <c r="F98">
+        <v>-0.2391229757062468</v>
+      </c>
+      <c r="G98">
+        <v>-0.02717462940334539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0106731461823838</v>
+        <v>0.00877653644804126</v>
       </c>
       <c r="C101">
-        <v>0.002556219750692624</v>
+        <v>-0.02296490725397895</v>
       </c>
       <c r="D101">
-        <v>0.01856777662245676</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009031250821724303</v>
+      </c>
+      <c r="E101">
+        <v>0.004386368818072874</v>
+      </c>
+      <c r="F101">
+        <v>0.01544620502039793</v>
+      </c>
+      <c r="G101">
+        <v>0.09560008834250881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.04708921282315805</v>
+        <v>0.1153537102073727</v>
       </c>
       <c r="C102">
-        <v>0.03957181217785035</v>
+        <v>-0.08424978982526746</v>
       </c>
       <c r="D102">
-        <v>0.1355825111298744</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008654485597839159</v>
+      </c>
+      <c r="E102">
+        <v>-0.03528276253920146</v>
+      </c>
+      <c r="F102">
+        <v>0.04244961430223859</v>
+      </c>
+      <c r="G102">
+        <v>0.01126356950486803</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.7213692980049419</v>
+        <v>0.02132224406785883</v>
       </c>
       <c r="C104">
-        <v>-0.6792374856935631</v>
+        <v>0.03029932643257926</v>
       </c>
       <c r="D104">
-        <v>-0.03134694842598503</v>
+        <v>-0.9879397310258961</v>
+      </c>
+      <c r="E104">
+        <v>-0.04730693107715869</v>
+      </c>
+      <c r="F104">
+        <v>0.03519281530597723</v>
+      </c>
+      <c r="G104">
+        <v>-0.03970860999807428</v>
       </c>
     </row>
   </sheetData>
